--- a/medicine/Sexualité et sexologie/Bananes_mécaniques/Bananes_mécaniques.xlsx
+++ b/medicine/Sexualité et sexologie/Bananes_mécaniques/Bananes_mécaniques.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bananes_m%C3%A9caniques</t>
+          <t>Bananes_mécaniques</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bananes mécaniques est un film franco-italien réalisé par Jean-François Davy, sorti en 1973.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bananes_m%C3%A9caniques</t>
+          <t>Bananes_mécaniques</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Si les 5 filles que vous trouvez les plus excitantes s'offraient à vous en même temps ? Vous seriez le plus heureux des hommes ! Les premiers jours en tous cas... Car après avoir assumé vos fantasmes les plus secrets, vous n'auriez plus, comme François, qu'un seul désir : fuir ! Pour gagner un repos bien mérité !
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bananes_m%C3%A9caniques</t>
+          <t>Bananes_mécaniques</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Bananes mécaniques
 Réalisation : Jean-François Davy
@@ -573,24 +589,24 @@
 Format : couleur 16 mm
 Genre : comédie érotique
 Durée : 85 minutes
-Interdiction aux moins de 18 ans à sa sortie en salles en France[1].
+Interdiction aux moins de 18 ans à sa sortie en salles en France.
 Sociétés de distribution :
  France : S.N.D. (1973)
  Allemagne : Action 1
  Italie : Telemondo cinematografico (1973)
  Canada : Cinépix Film Properties (1974)
- Espagne : Dolores Sostre Sobre (1978)[2]
+ Espagne : Dolores Sostre Sobre (1978)
  Australie : Filmways Australasian Distributors (1981)
 Dates de sortie :
  France : 19 juillet 1973
  Allemagne : 6 juin 1973
- Espagne : 6 juillet 1978[2]
+ Espagne : 6 juillet 1978
 Autres titres connus
  France : Les Nanas en folie (titre provisoire)
  Allemagne : French Love
  Italie : Banana meccanica
- Espagne : Bananas mecanicas[2]
- Australie : Mechanical Bananas (1975)[3]
+ Espagne : Bananas mecanicas
+ Australie : Mechanical Bananas (1975)
  Royaume-Uni : Mechanical Bananas / Clockwork Banana
  États-Unis : Erotic Escape (titre video)
  Grèce : Kourdistes bananes</t>
@@ -603,7 +619,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bananes_m%C3%A9caniques</t>
+          <t>Bananes_mécaniques</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -621,7 +637,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Marie-Georges Pascal : Marie-Georges
 Anne Libert : Anne, la starlette
@@ -654,7 +672,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bananes_m%C3%A9caniques</t>
+          <t>Bananes_mécaniques</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -672,7 +690,9 @@
           <t>À propos du film</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Bananes mécaniques est le 1er volet de la trilogie paillarde de Jean-François Davy, suivront Prenez la queue comme tout le monde en 1973 et Q - Au plaisir des dames en 1974. "On peut rire de tout, sauf du sexe" ; opposé à l'idée reçue que humour et érotisme ne pouvaient pas faire bon ménage, Jean-François Davy a réalisé Bananes mécaniques en 1972. Expérience concluante : le film a réalisé plus d'un million d'entrées au cinéma.
 </t>
